--- a/国家重大项目.xlsx
+++ b/国家重大项目.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>实践二十号卫星成功定点 东方红五号卫星平台首飞成功</t>
   </si>
@@ -347,6 +347,39 @@
   <si>
     <t>嫦娥五号探测器、长征五号运载火箭、大型水陆两栖飞机AG600、ARJ21支线客机、海阳核电1号机组、中核田湾5号核电机组、LNG动力集装箱船、四川阿坝双江口水电项目、中广核岱山海上风电项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国成功发射遥感三十号06组卫星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天（3月24日）11时43分，我国在西昌卫星发射中心用长征二号丙运载火箭成功将遥感三十号06组卫星发射升空，任务获得圆满成功。火箭点火升空后，测控人员迅速捕获目标，密切注视火箭初始段的飞行数据。大约40分钟后，遥感三十号06组卫星顺利进入预定轨道。此次发射的卫星采用多星组网模式，主要用于开展电磁环境探测及相关技术试验。遥感三十号06组卫星和长征二号丙运载火箭，分别由中国科学院微小卫星创新研究院和中国航天科技集团有限公司所属中国运载火箭技术研究院研制。此次任务是长征系列运载火箭的第329次航天飞行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥感三十号06组卫星、长征二号丙运载火箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAST启动重大和优先项目科学观测</t>
+  </si>
+  <si>
+    <t>近日，被誉为“中国天眼”的500米口径球面射电望远镜(FAST)陆续启动了五个重大和优先项目的科学观测，正式进入科学产出阶段。在位于贵州平塘的FAST观测基地，科研人员正在进行一项国际重大前沿科技项目——脉冲星计时的观测。脉冲星被称为宇宙灯塔，可用于深空探测器自主导航。截至目前，FAST已发现并认证脉冲星达到114颗。科研人员选取一定数目的脉冲星组成计时阵列，有望进一步提高时间精度。疫情防控期间，正是FAST通过国家验收后正式开放运行的关键时期。FAST项目组整合项目需求，对观测流程进行了系统优化，并陆续启动了脉冲星计时阵列、漂移扫描多科学目标巡天等五个重大和优先项目的科学观测，这也是未来FAST最有可能产出重大成果的研究领域。为了充分发挥FAST性能，国家天文台还开发了专门的网站，供国内天文学家使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国天眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家超算天津中心用户数量增长10%</t>
+  </si>
+  <si>
+    <t>国家超级计算天津中心通过强化线上渠道维护，用户数量较春节前增长了10%。随着方案定型，日前，我国地震工程领域首个国家重大科技基础设施——大型地震工程模拟研究设施，在国家超算天津中心“天河三号”原型机上完成了阶段性的优化设计工作，“天河三号”原型机突破解决了我国研制百亿亿次超级计算机的主要关键技术。目前，中心通过强化互联网线上业务对接，带动企业用户数量逐步增长，每天同时在线用户数量超过1000个，每天累计作业超8000次，运行已趋于饱和。截至目前，我国已建成天津、济南、深圳、广州、长沙、无锡6个国家超算中心。据了解，通过自身开发的芯片等资源，天津中心已完成系统升级扩容；济南、深圳、广州中心的超级计算机升级换代，也将在今年内全面展开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级计算</t>
   </si>
 </sst>
 </file>
@@ -689,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -927,6 +960,57 @@
       </c>
       <c r="E14" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
